--- a/biology/Botanique/Jardin_des_plantes_de_Montpellier/Jardin_des_plantes_de_Montpellier.xlsx
+++ b/biology/Botanique/Jardin_des_plantes_de_Montpellier/Jardin_des_plantes_de_Montpellier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des plantes de Montpellier est un jardin botanique universitaire fondé en 1593 et qui fait partie intégrante du patrimoine de la faculté de Médecine de Montpellier et de l'université de Montpellier. C'est le plus ancien jardin botanique de France devant celui de Strasbourg fondé en 1619, celui de Paris créé en 1635 et celui de Caen en 1736. Ce jardin a une triple vocation : botanique, historique et universitaire.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1593, Henri IV confia à Pierre Richer de Belleval la création d’un jardin botanique suivant le modèle de celui de Padoue créé vers 1545. Le projet prend rapidement de l’ampleur et ne se limite pas à la culture des simples. Richer en publie le catalogue en 1598, mais les guerres de Religion qui ravagent la région anéantissent également le jardin lors du siège de la ville en 1622. Richer de Belleval doit tout reprendre à zéro. Au début du XVIIe siècle, le jardin des plantes de Montpellier fut non seulement un jardin scientifique, avec son importante collection de végétaux, mais un jardin précurseur dans sa manière d’appréhender le monde végétal dans sa diversité, en reproduisant différents milieux (ombragé, ensoleillé, humide, sablonneux, pierreux…) et en consacrant un emplacement aux plantes exotiques.
 En 1851, le botaniste Charles Frédéric Martins est nommé directeur du jardin des plantes de Montpellier, charge qu'il conservera jusqu'en 1879. En 1860, il fit construire une grande serre, dans le jardin botanique de Montpellier, qui porte aujourd'hui son nom, la serre Martins.
@@ -545,11 +559,13 @@
           <t>Le jardin des plantes aujourd'hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa valeur pédagogique étant reconnue, il est fréquenté par nombre de botanistes, médecins et pharmaciens, écoliers et étudiants mais aussi, par des amateurs de la flore, des touristes et de nombreux amoureux de la nature et des plantes. Le Jardin des plantes, qui s'étend sur 4,6 hectares, est propriété de l’État, affecté à l’université de Montpellier et géré par la faculté de Médecine de Montpellier.
-C'est l'un des plus beaux éléments du patrimoine paysager de Montpellier et il a été classé Site protégé en 1984 et classé monument historique en 1992[1]. Il a obtenu le label « jardin remarquable ».
-Sa restauration, cadrée par une étude préalable de l'architecte en chef des Monuments historiques, est en cours (2010), avec la réhabilitation de la serre Martins et l'aménagement de ses abords. En 2022, la Maison de l’intendance du jardin des plantes, située au jardin de la Reine est retenu comme un des projets emblématiques du loto du patrimoine[2].
+C'est l'un des plus beaux éléments du patrimoine paysager de Montpellier et il a été classé Site protégé en 1984 et classé monument historique en 1992. Il a obtenu le label « jardin remarquable ».
+Sa restauration, cadrée par une étude préalable de l'architecte en chef des Monuments historiques, est en cours (2010), avec la réhabilitation de la serre Martins et l'aménagement de ses abords. En 2022, la Maison de l’intendance du jardin des plantes, située au jardin de la Reine est retenu comme un des projets emblématiques du loto du patrimoine.
 </t>
         </is>
       </c>
@@ -578,12 +594,14 @@
           <t>Informations pratiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin des plantes se visite du mardi au dimanche, en été (du 1er juin au 30 septembre) de 12 h à 20 h et en hiver (du 1er octobre au 31 mai) de 12 h à 18 h, et l’entrée en est gratuite[3].
-Via l'utilisation des transports en commun[4], le Jardin des plantes est accessible en tramway, aux arrêts : « Place Albert Ier - Saint-Charles », par la ligne     1  et « Albert Ier - Cathédrale », par la ligne     4 . En bus, à l'arrêt : « Place Albert Ier - Cathédrale », par les lignes    6  7.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin des plantes se visite du mardi au dimanche, en été (du 1er juin au 30 septembre) de 12 h à 20 h et en hiver (du 1er octobre au 31 mai) de 12 h à 18 h, et l’entrée en est gratuite.
+Via l'utilisation des transports en commun, le Jardin des plantes est accessible en tramway, aux arrêts : « Place Albert Ier - Saint-Charles », par la ligne     1  et « Albert Ier - Cathédrale », par la ligne     4 . En bus, à l'arrêt : « Place Albert Ier - Cathédrale », par les lignes    6  7.
 Une station de Vélomagg'  est disponible devant l'entrée du Jardin.
-Un accès est aménagé pour les personnes à mobilité réduite moyennant la sollicitation auprès du personnel[5] .
+Un accès est aménagé pour les personnes à mobilité réduite moyennant la sollicitation auprès du personnel .
 L'Institut de botanique construit en 1889 par le professeur Charles Henri Marie Flahault et qui jouxte le Jardin des plantes, abrite aujourd'hui le siège de l'université de Montpellier.
 </t>
         </is>
@@ -613,7 +631,9 @@
           <t>Quelques données sur le jardin des plantes de Montpellier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Classé site protégé le 12 février 1962, il est classé Monument historique depuis le 3 septembre 1992 ;
 Superficie : 46 460 m2.
@@ -655,7 +675,9 @@
           <t>Personnalités liées au jardin des plantes de Montpellier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pierre Richer de Belleval, Intendant de 1593 à 1632.
